--- a/output/3_Regression/varlist__Random Forest.xlsx
+++ b/output/3_Regression/varlist__Random Forest.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c9b36a04e2b00f1/Documentos/Github/inflation-prediction/output/3_Regression/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_5629A2FCF613C8264F2C4C8E154DB04B590A7B3E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31DB8FD5-57C3-43C4-A815-8F6D5EAB8C04}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -151,8 +145,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,21 +209,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +253,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -301,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -336,10 +321,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,17 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="46.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>12</v>
       </c>
@@ -538,10 +519,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.63147261251690867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.6314726125169087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>8</v>
       </c>
@@ -552,7 +533,7 @@
         <v>0.1645810322606015</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -560,10 +541,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5.5708877023445728E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.05570887702344573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -571,10 +552,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>3.1198724001791089E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03119872400179109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -582,10 +563,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>1.9632939201220761E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01963293920122076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>21</v>
       </c>
@@ -593,10 +574,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>1.6795889326759392E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01679588932675939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -604,10 +585,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1.6073302366951609E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.01607330236695161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -615,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1.40446082115845E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0140446082115845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -626,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>7.7465905895918686E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.007746590589591869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>19</v>
       </c>
@@ -637,10 +618,10 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>6.5186759574378476E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.006518675957437848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -648,10 +629,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>6.3274065555277096E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.00632740655552771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>18</v>
       </c>
@@ -659,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>2.4690099117186831E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.002469009911718683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>16</v>
       </c>
@@ -670,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>2.2245115420687512E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.002224511542068751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -681,10 +662,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>2.0764994508832429E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.002076499450883243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -692,10 +673,10 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>1.8787264149713839E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001878726414971384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -703,10 +684,10 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>1.4948570698622579E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001494857069862258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -714,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1.4405678773187439E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001440567877318744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -725,10 +706,10 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>1.227962533280304E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001227962533280304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>28</v>
       </c>
@@ -736,10 +717,10 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>1.223943898067873E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001223943898067873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -747,10 +728,10 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>1.135900955716417E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001135900955716417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>25</v>
       </c>
@@ -758,10 +739,10 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>1.060002206825072E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001060002206825072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -769,10 +750,10 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>1.0313480602382841E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001031348060238284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>5</v>
       </c>
@@ -780,10 +761,10 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>1.0266255951055809E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.001026625595105581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>32</v>
       </c>
@@ -791,10 +772,10 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>9.6646569652486471E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0009664656965248647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>35</v>
       </c>
@@ -802,10 +783,10 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>9.6484709193350423E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0009648470919335042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -813,10 +794,10 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>8.7299253290906665E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0008729925329090667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -824,10 +805,10 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>7.9749532859476376E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0007974953285947638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -835,10 +816,10 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>7.343843455234622E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0007343843455234622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -846,10 +827,10 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>7.313667057387706E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0007313667057387706</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -857,10 +838,10 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>7.0690086582006007E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0007069008658200601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -868,10 +849,10 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>6.9943984440088303E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.000699439844400883</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>23</v>
       </c>
@@ -879,10 +860,10 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>6.7753180874251836E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0006775318087425184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -890,10 +871,10 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>6.4129115757034793E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0006412911575703479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>26</v>
       </c>
@@ -901,10 +882,10 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>6.3509395655768038E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0006350939565576804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -912,10 +893,10 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>5.8799397060250612E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0005879939706025061</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -923,10 +904,10 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>5.8696691055173315E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0005869669105517332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -934,10 +915,10 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>5.4162954854397594E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0005416295485439759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -945,10 +926,10 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>5.3248035598002649E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0005324803559800265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -956,10 +937,10 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>4.788382199660915E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.0004788382199660915</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>24</v>
       </c>
@@ -967,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>4.5366813216237252E-4</v>
+        <v>0.0004536681321623725</v>
       </c>
     </row>
   </sheetData>
